--- a/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\business-req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CDC916-7F42-4F21-B808-4C9B831C1D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2778E6DC-50E0-4CC5-8462-465216FFC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="330" windowWidth="16800" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,6 +488,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -538,63 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9848,7 +9848,10 @@
   <dimension ref="A1:BC52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9857,277 +9860,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="51" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="41" t="s">
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="51" t="s">
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="41" t="s">
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="43"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="29"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="41" t="str">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="27" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>勤怠報告フロー</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="44" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="47">
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="36">
         <v>44533</v>
       </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="44" t="s">
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="47">
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="36">
         <v>44533</v>
       </c>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="43"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="29"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="35" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="35" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="35" t="s">
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="36" t="s">
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="37"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="34"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="39"/>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="40"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="35"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -10182,9 +10185,9 @@
       <c r="BC6" s="9"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -10239,9 +10242,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -10296,9 +10299,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -10353,9 +10356,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -10410,9 +10413,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -10467,9 +10470,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -10524,9 +10527,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -10581,9 +10584,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -10638,9 +10641,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -10695,9 +10698,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -10752,9 +10755,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -10809,11 +10812,11 @@
       <c r="BC17" s="12"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -10868,9 +10871,9 @@
       <c r="BC18" s="15"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -10925,9 +10928,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -10982,9 +10985,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -11039,9 +11042,9 @@
       <c r="BC21" s="3"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -11096,9 +11099,9 @@
       <c r="BC22" s="3"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -11153,9 +11156,9 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -11210,9 +11213,9 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -11267,9 +11270,9 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -11324,9 +11327,9 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -11381,9 +11384,9 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -11438,9 +11441,9 @@
       <c r="BC28" s="3"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -11495,9 +11498,9 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -11552,9 +11555,9 @@
       <c r="BC30" s="3"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -11609,9 +11612,9 @@
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -11666,9 +11669,9 @@
       <c r="BC32" s="3"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -11723,11 +11726,11 @@
       <c r="BC33" s="12"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -11782,9 +11785,9 @@
       <c r="BC34" s="3"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -11839,9 +11842,9 @@
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -11896,9 +11899,9 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -11953,9 +11956,9 @@
       <c r="BC37" s="3"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -12010,9 +12013,9 @@
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -12067,9 +12070,9 @@
       <c r="BC39" s="3"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -12124,9 +12127,9 @@
       <c r="BC40" s="3"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -12181,9 +12184,9 @@
       <c r="BC41" s="3"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -12238,9 +12241,9 @@
       <c r="BC42" s="3"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -12295,9 +12298,9 @@
       <c r="BC43" s="3"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -12352,9 +12355,9 @@
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -12409,9 +12412,9 @@
       <c r="BC45" s="3"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -12466,9 +12469,9 @@
       <c r="BC46" s="3"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -12523,9 +12526,9 @@
       <c r="BC47" s="3"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -12580,9 +12583,9 @@
       <c r="BC48" s="3"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -12637,9 +12640,9 @@
       <c r="BC49" s="3"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -12694,9 +12697,9 @@
       <c r="BC50" s="3"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -12751,9 +12754,9 @@
       <c r="BC51" s="3"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -12809,11 +12812,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A34:C52"/>
+    <mergeCell ref="A6:C17"/>
+    <mergeCell ref="A18:C33"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
     <mergeCell ref="Q4:AC5"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
@@ -12825,11 +12828,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A34:C52"/>
-    <mergeCell ref="A6:C17"/>
-    <mergeCell ref="A18:C33"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -12843,7 +12846,10 @@
   <dimension ref="A1:BC21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12852,277 +12858,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="51" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="41" t="s">
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="51" t="s">
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="41" t="s">
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="43"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="29"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="41" t="str">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="27" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>有給申請フロー</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="44" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="47">
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="36">
         <v>44533</v>
       </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="44" t="s">
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="47">
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="36">
         <v>44533</v>
       </c>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="43"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="29"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="35" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="35" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="35" t="s">
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="36" t="s">
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="37"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="34"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="39"/>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="40"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="35"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -13177,9 +13183,9 @@
       <c r="BC6" s="15"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -13234,9 +13240,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -13291,9 +13297,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -13348,9 +13354,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -13405,9 +13411,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -13462,9 +13468,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -13519,9 +13525,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -13576,9 +13582,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -13633,9 +13639,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -13690,9 +13696,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -13747,9 +13753,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -13804,9 +13810,9 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -13861,9 +13867,9 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -13918,9 +13924,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -13975,9 +13981,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -14033,11 +14039,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A6:C21"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="AV1:BC1"/>
     <mergeCell ref="G2:N2"/>
@@ -14047,11 +14053,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A6:C21"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\business-req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2778E6DC-50E0-4CC5-8462-465216FFC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1FE8FD-CCC0-433E-9E39-060A2EC692E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="330" windowWidth="16800" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="330" windowWidth="16800" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="3" r:id="rId1"/>
-    <sheet name="勤怠報告フロー" sheetId="2" r:id="rId2"/>
-    <sheet name="有給申請フロー" sheetId="5" r:id="rId3"/>
+    <sheet name="概要" sheetId="6" r:id="rId2"/>
+    <sheet name="勤怠報告フロー" sheetId="2" r:id="rId3"/>
+    <sheet name="有給申請フロー" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">勤怠報告フロー!$A$1:$BC$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">有給申請フロー!$A$1:$BC$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">勤怠報告フロー!$A$1:$BC$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">有給申請フロー!$A$1:$BC$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
@@ -179,12 +180,76 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ビジネスプロセスフローとは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【目的】 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【説明】 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">プロセスとその間での情報のやり取り/順序を中心に描いたものである。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ビジネスプロセスフロー（業務フロー）（以下、業務フロー）はフロー系モデルであ り、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいビジネスプロセスを創造し、To-Be 業務フローとして表すことにより、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">新たな ビジネスの流れを共通認識できる状態にする。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要に応じて As-Is 業務フローを作成し、現状の業務ビジネスの流れを明示すること により、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">現状の業務ビジネスフローの問題点や課題を共通認識できる状態にする。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務フローは、三階層で業務を表現したときの二階層目を中心に業務を表現したもの である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">手段であるシステム利用を表現していないレベルであり、業務の根本的な機 能/目的が分かるようにすることを目的として作成する。 </t>
+  </si>
+  <si>
+    <t>根本的な業務を表現することができるので、As-Is 業務フローは現状業務の本質的課 題の発見に、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To-Be 業務フローは新しい業務としてビジネスプロセス自体を見直そう としたときに役立つ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご了承ください…。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成したフローは上記に反する内容ですが、今回はメール使用をデフォルトとします。(現行の業務フローを表現してます)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPAより抜粋</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -217,6 +282,74 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="BIZ UDP明朝 Medium"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="BIZ UDP明朝 Medium"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="BIZ UDP明朝 Medium"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -428,12 +561,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,61 +624,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,8 +696,69 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9844,14 +10005,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EFEDDA-9073-4BD7-B2BD-87B178EF0248}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="24"/>
+      <c r="D5" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="24">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="D7" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="24"/>
+      <c r="D10" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="24">
+        <v>2</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="24"/>
+      <c r="D12" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="24">
+        <v>3</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="page=401" xr:uid="{CF77F161-F8D2-4C76-92EF-3A65C87AE4C8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE153E9D-197F-4667-A745-A23CD82F214B}">
   <dimension ref="A1:BC52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:F2"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4:AP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9860,277 +10155,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="24" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="24" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="24" t="s">
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="27" t="s">
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="29"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="50"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="27" t="str">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="48" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>勤怠報告フロー</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="21" t="s">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="36">
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="54">
         <v>44533</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="21" t="s">
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="36">
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="54">
         <v>44533</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="29"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="50"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="30" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="30" t="s">
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="31" t="s">
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="34"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="44"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="35"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="47"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -10185,9 +10480,9 @@
       <c r="BC6" s="9"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -10242,9 +10537,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -10299,9 +10594,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -10356,9 +10651,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -10413,9 +10708,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -10470,9 +10765,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -10527,9 +10822,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -10584,9 +10879,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -10641,9 +10936,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -10698,9 +10993,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -10755,9 +11050,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -10812,11 +11107,11 @@
       <c r="BC17" s="12"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -10871,9 +11166,9 @@
       <c r="BC18" s="15"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -10928,9 +11223,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -10985,9 +11280,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -11042,9 +11337,9 @@
       <c r="BC21" s="3"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="46"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -11099,9 +11394,9 @@
       <c r="BC22" s="3"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="46"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -11156,9 +11451,9 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -11213,9 +11508,9 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="46"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -11270,9 +11565,9 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="46"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -11327,9 +11622,9 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="46"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -11384,9 +11679,9 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="46"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -11441,9 +11736,9 @@
       <c r="BC28" s="3"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="46"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -11498,9 +11793,9 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="46"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -11555,9 +11850,9 @@
       <c r="BC30" s="3"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="46"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -11612,9 +11907,9 @@
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="46"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -11669,9 +11964,9 @@
       <c r="BC32" s="3"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -11726,11 +12021,11 @@
       <c r="BC33" s="12"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -11785,9 +12080,9 @@
       <c r="BC34" s="3"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -11842,9 +12137,9 @@
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -11899,9 +12194,9 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -11956,9 +12251,9 @@
       <c r="BC37" s="3"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -12013,9 +12308,9 @@
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -12070,9 +12365,9 @@
       <c r="BC39" s="3"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -12127,9 +12422,9 @@
       <c r="BC40" s="3"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -12184,9 +12479,9 @@
       <c r="BC41" s="3"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -12241,9 +12536,9 @@
       <c r="BC42" s="3"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -12298,9 +12593,9 @@
       <c r="BC43" s="3"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -12355,9 +12650,9 @@
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -12412,9 +12707,9 @@
       <c r="BC45" s="3"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -12469,9 +12764,9 @@
       <c r="BC46" s="3"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -12526,9 +12821,9 @@
       <c r="BC47" s="3"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -12583,9 +12878,9 @@
       <c r="BC48" s="3"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -12640,9 +12935,9 @@
       <c r="BC49" s="3"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -12697,9 +12992,9 @@
       <c r="BC50" s="3"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -12754,9 +13049,9 @@
       <c r="BC51" s="3"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -12812,11 +13107,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A34:C52"/>
-    <mergeCell ref="A6:C17"/>
-    <mergeCell ref="A18:C33"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="Q4:AC5"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
@@ -12828,11 +13123,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A34:C52"/>
+    <mergeCell ref="A6:C17"/>
+    <mergeCell ref="A18:C33"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -12841,7 +13136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A111F278-D136-4A1B-9674-1D61131F141D}">
   <dimension ref="A1:BC21"/>
   <sheetViews>
@@ -12858,277 +13153,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="24" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="24" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="24" t="s">
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="27" t="s">
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="29"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="50"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="27" t="str">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="48" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>有給申請フロー</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="21" t="s">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="36">
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="54">
         <v>44533</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="21" t="s">
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="36">
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="54">
         <v>44533</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="29"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="50"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="30" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="30" t="s">
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="31" t="s">
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="34"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="44"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="35"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="47"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -13183,9 +13478,9 @@
       <c r="BC6" s="15"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -13240,9 +13535,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -13297,9 +13592,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -13354,9 +13649,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -13411,9 +13706,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -13468,9 +13763,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -13525,9 +13820,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -13582,9 +13877,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -13639,9 +13934,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -13696,9 +13991,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -13753,9 +14048,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -13810,9 +14105,9 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -13867,9 +14162,9 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -13924,9 +14219,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -13981,9 +14276,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -14039,11 +14334,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A6:C21"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="AV1:BC1"/>
     <mergeCell ref="G2:N2"/>
@@ -14053,11 +14348,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A6:C21"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\business-req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1FE8FD-CCC0-433E-9E39-060A2EC692E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB61B7B4-3D70-4044-A230-036C2279D920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="330" windowWidth="16800" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="330" windowWidth="16800" windowHeight="15870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">勤怠報告フロー!$A$1:$BC$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">有給申請フロー!$A$1:$BC$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">有給申請フロー!$A$1:$BC$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クライアント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日々の勤怠入力</t>
     <rPh sb="0" eb="2">
       <t>ヒビ</t>
@@ -170,13 +166,6 @@
     <t>管理者</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇〇〇申請</t>
-    <rPh sb="3" eb="5">
-      <t>シンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -229,10 +218,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ご了承ください…。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -242,6 +227,36 @@
   </si>
   <si>
     <t>IPAより抜粋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有給申請(一般職)</t>
+    <rPh sb="0" eb="2">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>イッパンショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有給申請(上司)</t>
+    <rPh sb="0" eb="2">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご了承ください。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -645,6 +660,66 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -695,66 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2664,6 +2679,232 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>138393</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC9827D-7439-48F5-B565-68929160BF0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3192556" y="3126999"/>
+          <a:ext cx="1641662" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>部下の勤怠ファイル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>を取りまとめ、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>自身含めファイル提出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDAFD7D-0562-410C-9D4D-75C46F0181AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3235137" y="6181724"/>
+          <a:ext cx="1641662" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>部下の勤怠ファイル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>を取りまとめ、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>自身含めファイル提出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>173848</xdr:colOff>
       <xdr:row>37</xdr:row>
@@ -2995,91 +3236,6 @@
             <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>52668</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>69474</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>11208</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="フローチャート: 端子 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0CC002-370D-4055-B484-CCC552142341}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3268756" y="3117474"/>
-          <a:ext cx="1392893" cy="883026"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>部下の勤怠ファイルを取りまとめ、自身含めファイル提出</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3774,13 +3930,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>31938</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:colOff>38380</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>39220</xdr:colOff>
+      <xdr:colOff>41462</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>133001</xdr:rowOff>
     </xdr:to>
@@ -3794,14 +3950,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="90" idx="0"/>
-          <a:endCxn id="127" idx="2"/>
+          <a:endCxn id="76" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3965203" y="4000500"/>
-          <a:ext cx="7282" cy="1332030"/>
+        <a:xfrm flipV="1">
+          <a:off x="4010305" y="3898524"/>
+          <a:ext cx="3082" cy="1482752"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3853,7 +4010,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="127" idx="3"/>
+          <a:cxnSpLocks/>
           <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -5482,111 +5639,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>179293</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>145678</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="フローチャート: 端子 223">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC8B5B4-B980-40F6-AF4B-94E9DF24D886}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3216087" y="6017558"/>
-          <a:ext cx="1580032" cy="840442"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>部下の勤怠ファイルを取りまとめ、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>自身含めファイル提出</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>21291</xdr:colOff>
       <xdr:row>34</xdr:row>
@@ -5798,9 +5850,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>72838</xdr:colOff>
+      <xdr:colOff>84043</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -5820,13 +5872,13 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="227" idx="0"/>
-          <a:endCxn id="224" idx="2"/>
+          <a:endCxn id="73" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4006103" y="6858000"/>
-          <a:ext cx="14567" cy="1184112"/>
+          <a:off x="4055968" y="6953249"/>
+          <a:ext cx="3362" cy="1162822"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5879,7 +5931,6 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="224" idx="3"/>
           <a:endCxn id="225" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -7135,8 +7186,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>112057</xdr:rowOff>
     </xdr:from>
@@ -7159,8 +7210,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4482354" y="3160057"/>
-          <a:ext cx="961914" cy="534957"/>
+          <a:off x="4695825" y="3188632"/>
+          <a:ext cx="800550" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMultidocument">
           <a:avLst/>
@@ -7778,22 +7829,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>52668</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69474</xdr:rowOff>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>11208</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28944</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>4544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 端子 5">
+        <xdr:cNvPr id="272" name="フローチャート: 端子 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FEE0BA-691F-400B-B08C-6B9EFA2598BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A5BB39-5746-4043-97F4-110EB3614142}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7801,8 +7852,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3300693" y="3146049"/>
-          <a:ext cx="1406340" cy="891430"/>
+          <a:off x="3362739" y="8688456"/>
+          <a:ext cx="1577792" cy="426958"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -7853,7 +7904,7 @@
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>部下の勤怠ファイルを取りまとめ、自身含めファイル提出</a:t>
+            <a:t>申請ファイル提出</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7862,23 +7913,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>164722</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>24127</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>99329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>98925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>134903</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>178964</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63226</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
+        <xdr:cNvPr id="273" name="フローチャート: 書類 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6AF1BA-1627-4E0D-B38E-85FC5FBC4218}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3A7BC8-5CC8-453C-8C65-4080947295D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7886,7 +7937,316 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5934075" y="3603247"/>
+          <a:off x="4389062" y="9027981"/>
+          <a:ext cx="701489" cy="328332"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>書類</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139119</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>100262</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="コネクタ: カギ線 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0D0643-51D7-4BED-B165-27FB750E9D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="77" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2053968" y="2155605"/>
+          <a:ext cx="4140727" cy="5054947"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 85605"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107676</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>138908</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="コネクタ: カギ線 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460C3898-1707-44FE-8FBC-9A2942135B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="137" idx="1"/>
+          <a:endCxn id="127" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4290393" y="3334848"/>
+          <a:ext cx="1853406" cy="1393690"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 46425"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180911</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1217A6-A12A-48B5-98E7-4450B2B727E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3452541" y="2045803"/>
+          <a:ext cx="1343091" cy="654328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>①申請ファイル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>を転送</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>130725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>69795</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E341C96-4C74-4A2C-86D1-CFD2D76C2466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6135616" y="2099609"/>
           <a:ext cx="1032375" cy="513106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7933,7 +8293,7 @@
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>勤怠確認</a:t>
+            <a:t>申請書類確認</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7943,22 +8303,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>86278</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>69465</xdr:rowOff>
+      <xdr:colOff>91103</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>44820</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>134473</xdr:rowOff>
+      <xdr:colOff>37221</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フローチャート: 端子 7">
+        <xdr:cNvPr id="55" name="フローチャート: 端子 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1732C9-386E-4F33-9E28-A783DCE1A2E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65078F3C-D8B8-4FCE-92B6-F54A4B97149F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7966,7 +8326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="991153" y="3507990"/>
+          <a:off x="1002190" y="1200947"/>
           <a:ext cx="1577792" cy="426958"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -8013,12 +8373,22 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>①申請ファイル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>勤怠ファイル提出</a:t>
+            <a:t>提出</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8028,22 +8398,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67229</xdr:colOff>
+      <xdr:colOff>74539</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>168075</xdr:rowOff>
+      <xdr:rowOff>51367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>89987</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11539</xdr:rowOff>
+      <xdr:colOff>92327</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
+        <xdr:cNvPr id="56" name="図 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE07F3B2-F954-41BA-BE0C-82473199E058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABFBCF3-B941-4451-A3E2-12203714C6B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8065,8 +8435,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="610154" y="3244650"/>
-          <a:ext cx="746658" cy="748338"/>
+          <a:off x="621191" y="962454"/>
+          <a:ext cx="746658" cy="748339"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8077,23 +8447,134 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133001</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>169553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>103182</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>130725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4141</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B1AC69-18C1-4B6C-B724-FEA4BE4592FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="118" idx="3"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4795632" y="2356162"/>
+          <a:ext cx="1339984" cy="16805"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41561</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161659</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>105218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{461C79F3-AB52-4B0B-BE45-86ACB0ABCF47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3130974" y="1987831"/>
+          <a:ext cx="666750" cy="668430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>79931</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>24369</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>73921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
+        <xdr:cNvPr id="77" name="フローチャート: 端子 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0171E8-CE15-4086-AECA-6BF724148510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDA4681-8211-4A2A-998C-BAF9FA94A9C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8101,10 +8582,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190314" y="5381276"/>
-          <a:ext cx="1639981" cy="513106"/>
+          <a:off x="808801" y="6753442"/>
+          <a:ext cx="1576111" cy="426957"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -8136,19 +8617,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>全員分提出確認</a:t>
+            <a:t>終了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8157,23 +8643,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>90203</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25770</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102955</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>33053</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>149595</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>93409</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>75569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
+        <xdr:cNvPr id="81" name="図 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48E13E7-62E6-4396-9490-3E635D1553D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624CDEF6-9328-408E-929B-1B061CC89F65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8182,7 +8668,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8195,8 +8681,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4424078" y="5274045"/>
-          <a:ext cx="666750" cy="666749"/>
+          <a:off x="5014542" y="2089505"/>
+          <a:ext cx="537106" cy="537107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8205,25 +8691,110 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>32404</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5024</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>46630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="フローチャート: 書類 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA9CFED-D975-443D-9657-FF9505F915B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028513" y="1540472"/>
+          <a:ext cx="701489" cy="328332"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>書類</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>77882</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>164724</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>124517</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>100640</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>8187</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>109676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
+        <xdr:cNvPr id="84" name="図 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650D10BC-B01B-49E4-8A4E-B77BB980300D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95E5EC1-892B-4756-BEBA-2BFD957C2824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8232,7 +8803,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8245,214 +8816,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="620807" y="888624"/>
-          <a:ext cx="746658" cy="748338"/>
+          <a:off x="7040495" y="2099609"/>
+          <a:ext cx="531811" cy="474228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>56957</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>62062</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B48853-E346-48BB-AA57-65B83B5B55F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="67" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2624978" y="4038407"/>
-          <a:ext cx="565336" cy="1633880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>31938</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>39220</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133001</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22C88010-4237-4006-985B-DD4BA561CAD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="0"/>
-          <a:endCxn id="6" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4003863" y="4037479"/>
-          <a:ext cx="7282" cy="1343797"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>11208</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>60166</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5AF2F1-7CF7-47BD-9B92-0D7307514BA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4707033" y="3590924"/>
-          <a:ext cx="1227042" cy="269717"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>2554</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>39380</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129570</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91115</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="フローチャート: 判断 18">
+        <xdr:cNvPr id="86" name="フローチャート: 判断 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845E275E-A77D-4305-B4D6-9C8174EB6E54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672B6905-EF25-443D-A145-254073C7538F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8460,8 +8852,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3485030" y="4569198"/>
-          <a:ext cx="1032374" cy="718457"/>
+          <a:off x="1275522" y="2103788"/>
+          <a:ext cx="1032374" cy="538370"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -8518,23 +8910,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160391</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+        <xdr:cNvPr id="90" name="テキスト ボックス 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEEEC4F-6A76-4436-BDB7-3017AA61ABBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD7C2E5A-3154-4891-B461-80E996C74930}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8542,8 +8934,144 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3529853" y="4738968"/>
-          <a:ext cx="960904" cy="542926"/>
+          <a:off x="2045804" y="2004391"/>
+          <a:ext cx="475130" cy="254373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>上司</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF46FD5E-9052-4E47-8EF5-9190EDDB190B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1805610" y="2625586"/>
+          <a:ext cx="609332" cy="256054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>管理者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82824</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57977</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="テキスト ボックス 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5929ECE6-A1EB-470C-A3FD-655E74F8EB33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1358346" y="2244587"/>
+          <a:ext cx="877957" cy="281609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8577,7 +9105,7 @@
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>全員提出されたか？</a:t>
+            <a:t>どちらに？</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8586,23 +9114,391 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129570</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180911</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4147</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線矢印コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40CE8F7-8464-4BC8-8DFA-AE6934951338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="86" idx="3"/>
+          <a:endCxn id="118" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2307896" y="2372967"/>
+          <a:ext cx="1144645" cy="6"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101104</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>91559</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>72019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C1DCA6-CAA0-4C66-BB5F-752B90316997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2643865" y="2085955"/>
+          <a:ext cx="537107" cy="537107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>113180</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>73398</xdr:rowOff>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>14033</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+        <xdr:cNvPr id="117" name="フローチャート: 書類 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6107C8-5F23-4410-B6C0-826B6D002019}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7C9526-0120-4D7A-A4CB-83351E481320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4406348" y="2592457"/>
+          <a:ext cx="701489" cy="328332"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>書類</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33132</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107676</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>135832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="正方形/長方形 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611A1915-C225-46A6-B070-B5C1FA582D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3304762" y="4401374"/>
+          <a:ext cx="985631" cy="654328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>②問題指摘メール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>転送</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>138908</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>77977</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>115972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="フローチャート: 判断 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5934E866-7EF8-4C75-AEAB-391DD6DFBC8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143799" y="3091594"/>
+          <a:ext cx="1032374" cy="486508"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>34644</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>16568</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="テキスト ボックス 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F856952E-B104-41FE-B104-3E983EA9C10E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8610,7 +9506,75 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971925" y="4343400"/>
+          <a:off x="6221753" y="3203382"/>
+          <a:ext cx="893011" cy="283607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>問題あり？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>137130</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>65607</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="テキスト ボックス 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35D4C4D-43F2-48F4-91BC-39EF08B17129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6688673" y="3528401"/>
           <a:ext cx="475130" cy="254373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8658,23 +9622,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>129988</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>118781</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>132525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>67849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>63874</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12885</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>62684</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+        <xdr:cNvPr id="140" name="テキスト ボックス 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8B280F-C98B-4896-9134-F768CA5B50FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2355D434-BCA8-4106-BEAD-8600FBB678EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8682,7 +9646,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197038" y="4643156"/>
+          <a:off x="5955199" y="2983327"/>
           <a:ext cx="476811" cy="256054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8730,43 +9694,47 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>71473</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42102</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>151129</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>151752</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99396</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+        <xdr:cNvPr id="146" name="コネクタ: カギ線 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6824D2-08C8-4AD1-805F-2E53E81FB1F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD12BC0-FD30-4BAA-99EE-302D2B01916A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="1"/>
-          <a:endCxn id="24" idx="3"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="55" idx="2"/>
+          <a:endCxn id="86" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2414623" y="4928427"/>
-          <a:ext cx="1070407" cy="2721"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1553456" y="1865534"/>
+          <a:ext cx="475883" cy="623"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
+          <a:prstDash val="dash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -8789,23 +9757,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>67238</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>33126</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>71473</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>154414</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
+        <xdr:cNvPr id="162" name="正方形/長方形 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A192ABDD-A0F6-477D-9615-B0C0F9FA43AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAABD08-FCEC-4778-A17D-4345F7110840}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8813,8 +9781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1153088" y="4636433"/>
-          <a:ext cx="1261535" cy="587749"/>
+          <a:off x="4762496" y="3478693"/>
+          <a:ext cx="1032375" cy="513106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8853,28 +9821,26 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>②問題指摘メール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>催促メール</a:t>
+            <a:t>送信</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>チェック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -8888,132 +9854,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>149594</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>134473</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>41417</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>153400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081C4951-C5EE-4F9C-BF95-BDDD6147848C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="0"/>
-          <a:endCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1778369" y="3934948"/>
-          <a:ext cx="3806" cy="701485"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>134466</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>77316</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101411</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46F9388-83CD-40F3-89F0-4AEE893AE898}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3020541" y="880781"/>
-          <a:ext cx="666750" cy="668430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>67234</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>14570</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>132248</xdr:rowOff>
+      <xdr:colOff>162704</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82832</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="フローチャート: 端子 33">
+        <xdr:cNvPr id="181" name="フローチャート: 判断 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E92D6A-46EB-4C31-8E36-FB983EA2A04A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDE714C-9889-40D5-A157-2D1599E07B24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9021,10 +9878,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5667934" y="5134541"/>
-          <a:ext cx="1576111" cy="426957"/>
+          <a:off x="4770787" y="4464332"/>
+          <a:ext cx="1032374" cy="538370"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
+        <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -9065,15 +9922,80 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>176956</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="テキスト ボックス 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD770281-249A-4E2E-A3D1-97A07594F645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4613413" y="4298674"/>
+          <a:ext cx="475130" cy="254373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>終了</a:t>
+            <a:t>上司</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9082,82 +10004,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>125663</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>134903</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57984</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>130550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67241</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DDEF7E-F9BB-49B0-9E71-E4821E6DD20D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="34" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6450263" y="4116353"/>
-          <a:ext cx="4887" cy="1018188"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>120664</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+        <xdr:cNvPr id="183" name="テキスト ボックス 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9827B8D4-B834-435D-A632-09884851F821}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3183EF7D-B43A-4442-A0C7-546EFB597A9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9165,8 +10028,76 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6492689" y="4343400"/>
-          <a:ext cx="962585" cy="542926"/>
+          <a:off x="5334006" y="5002694"/>
+          <a:ext cx="609332" cy="256054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>一般職</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>124241</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>91111</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="テキスト ボックス 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBCF6F8-EF06-4081-B902-EC6440288F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4853611" y="4588565"/>
+          <a:ext cx="877957" cy="281609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9200,32 +10131,259 @@
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>特に問題なければ終了</a:t>
+            <a:t>どちらに？</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>112057</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>107733</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>76650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109132</xdr:rowOff>
+      <xdr:colOff>98188</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>136622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="196" name="図 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CD3008-FAE6-4E9A-BA6F-82E13026BFC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019320" y="3972732"/>
+          <a:ext cx="537107" cy="537107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>151129</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33132</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="コネクタ: カギ線 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956EDE30-3AFD-4AF2-A919-A7313B971E89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="127" idx="1"/>
+          <a:endCxn id="55" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1791086" y="1200948"/>
+          <a:ext cx="1513676" cy="3527591"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 169492"/>
+            <a:gd name="adj2" fmla="val 106480"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149887</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>11573</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82833</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="コネクタ: カギ線 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBD8204-0F17-446D-81A8-D09501740428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="181" idx="2"/>
+          <a:endCxn id="55" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="1626661" y="1345495"/>
+          <a:ext cx="3775664" cy="3471661"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -16903"/>
+            <a:gd name="adj2" fmla="val 130072"/>
+            <a:gd name="adj3" fmla="val 106055"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>96138</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>93160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>86593</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="図 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D17CBD6-8216-4609-BCC3-7B4CEFEE9A69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638899" y="4466377"/>
+          <a:ext cx="537107" cy="537107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>61233</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>135777</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="フローチャート: 複数書類 62">
+        <xdr:cNvPr id="221" name="正方形/長方形 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18F640E-26D1-429D-9650-0C8B41B74C3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9810CFE8-8577-4A2C-A32E-175F5A45CBBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9233,10 +10391,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4526057" y="3188632"/>
-          <a:ext cx="970318" cy="540000"/>
+          <a:off x="4790603" y="5839237"/>
+          <a:ext cx="985631" cy="654328"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartMultidocument">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -9268,26 +10426,21 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>複数書類</a:t>
+            <a:t>受理メール</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -9295,29 +10448,42 @@
             <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>送信</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>93573</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38660</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99394</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>87754</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>32842</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>89849</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="図 65">
+        <xdr:cNvPr id="222" name="図 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BB5A93-C248-4693-AB69-441E431B3D08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE16019-A221-483B-B630-4934310BE2B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9339,8 +10505,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4970373" y="3477185"/>
-          <a:ext cx="537106" cy="537106"/>
+          <a:off x="2642155" y="5922060"/>
+          <a:ext cx="537107" cy="486154"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9351,23 +10517,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>115955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="フローチャート: 書類 66">
+        <xdr:cNvPr id="229" name="正方形/長方形 228">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353CCAEB-D01A-4B36-B785-5C1A9D2714DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82DEC862-3FEF-428F-AA7E-1B1049E58D1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9375,10 +10541,297 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2274233" y="3731559"/>
-          <a:ext cx="701489" cy="328332"/>
+          <a:off x="1109870" y="5839236"/>
+          <a:ext cx="985631" cy="654328"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>受理メール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>147400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>177627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>100262</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>160481</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="コネクタ: カギ線 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9EF1AC-7BEE-47BD-B9E8-9F8ADBBDF218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="235" idx="2"/>
+          <a:endCxn id="240" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4224012" y="9394602"/>
+          <a:ext cx="2169463" cy="2686122"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 74434"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>130725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>69795</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>177628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="正方形/長方形 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD65F6B-A6D0-44FE-BE74-DB1C09C0FAB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6135616" y="9868695"/>
+          <a:ext cx="1032375" cy="513107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>申請書類確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>58128</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>124244</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666750" cy="668430"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="239" name="図 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D747ED34-B900-496D-B37E-2AB8FD161FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2965324" y="8506244"/>
+          <a:ext cx="666750" cy="668430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>88213</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>160482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>24367</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>40787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="フローチャート: 端子 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87F86D0-AF88-4B88-89AC-F23188895D3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177626" y="11822395"/>
+          <a:ext cx="1576111" cy="426957"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -9427,32 +10880,529 @@
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>書類</a:t>
+            <a:t>終了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>108696</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>117102</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>124517</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28956</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="531811" cy="474228"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="244" name="図 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9C8477-49E6-47E8-A10B-678E4FFB6311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7040495" y="9868695"/>
+          <a:ext cx="531811" cy="474228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>138908</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>109854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>102878</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>111284</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>77977</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>49711</xdr:rowOff>
     </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="フローチャート: 判断 253">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8280F0A9-D05B-48FF-8456-4DA0EEB8DDAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143799" y="10860680"/>
+          <a:ext cx="1032374" cy="486509"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>34644</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>39425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>16568</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>140815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="テキスト ボックス 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE42B18C-FDEB-408D-A722-CB789CA31392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6221753" y="10972468"/>
+          <a:ext cx="893011" cy="283608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>問題あり？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>137130</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>65607</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>72164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="テキスト ボックス 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D19413-F707-4CA0-848F-C7620E72E66E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6688673" y="11297488"/>
+          <a:ext cx="475130" cy="254372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>132525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>62684</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>75424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="テキスト ボックス 256">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7C71C8-D8B3-4BE4-ADC0-281764BDB834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5955199" y="10752413"/>
+          <a:ext cx="476811" cy="256054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>151135</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>138908</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>170893</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="267" name="コネクタ: カギ線 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FE0F4B-E8AB-4645-8B90-68D5ADE65C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="254" idx="1"/>
+          <a:endCxn id="272" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4151635" y="7959588"/>
+          <a:ext cx="1992164" cy="2415479"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 155344"/>
+            <a:gd name="adj2" fmla="val 109464"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>168912</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>8279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>61238</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>115954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="269" name="正方形/長方形 268">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBC760E-490D-4B6D-8155-08353EFE2DFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6173803" y="10941322"/>
+          <a:ext cx="985631" cy="654328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>受理メール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>99393</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66251</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="537107" cy="486154"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="図 67">
+        <xdr:cNvPr id="270" name="図 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14A2B7E-7936-455C-B4FB-7295BE73474D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB416EA-1069-44C8-9982-EFAC2364AAF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9474,8 +11424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2632821" y="4641477"/>
-          <a:ext cx="537107" cy="537107"/>
+          <a:off x="5010980" y="10999294"/>
+          <a:ext cx="537107" cy="486154"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9483,76 +11433,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>152404</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>164722</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>182207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>141290</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>96025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="図 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC138210-3958-49E7-8AC4-39408BF35849}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6838954" y="3603247"/>
-          <a:ext cx="531811" cy="474227"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>30255</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>7843</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>36071</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>107665</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="吹き出し: 四角形 72">
+        <xdr:cNvPr id="271" name="正方形/長方形 270">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E357F4E3-F2AB-4FBB-9C7E-B7B11CB7810A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F2C21E-9DAA-4141-B468-9AC3A58D98F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9560,17 +11460,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1285314" y="1042147"/>
-          <a:ext cx="7496735" cy="2579806"/>
+          <a:off x="3478695" y="10933033"/>
+          <a:ext cx="985631" cy="654328"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -21881"/>
-            <a:gd name="adj2" fmla="val -42589"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -9595,51 +11495,340 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:effectLst/>
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>修正中～</a:t>
+            <a:t>受理メール</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="3200">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:effectLst/>
             <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>151751</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>169553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>130724</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="279" name="コネクタ: カギ線 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6CEA02-148E-4819-B378-7D3388E5DE91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="86" idx="2"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3820664" y="327206"/>
+          <a:ext cx="285996" cy="4343907"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -169709"/>
+            <a:gd name="adj2" fmla="val 91788"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>96133</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>86588</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="図 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DC91E9-FE17-4233-976B-3401FDFB86CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638894" y="2859552"/>
+          <a:ext cx="537107" cy="537107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>151135</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>4543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>130725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>103291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="286" name="コネクタ: カギ線 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F64DA16-1D11-4900-BFB2-0F1CA7D80D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="272" idx="2"/>
+          <a:endCxn id="235" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4638708" y="8628340"/>
+          <a:ext cx="1009835" cy="1983981"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102955</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>18854</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="537106" cy="537107"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="242" name="図 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9392E2-0DE4-475F-9A02-91DCD2A2EB14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5014542" y="9858593"/>
+          <a:ext cx="537106" cy="537107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>33126</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>107673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>154414</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>74126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="正方形/長方形 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD836D9-3619-427D-B193-21610F4EF99B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762496" y="10858499"/>
+          <a:ext cx="1032375" cy="513105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>①問題指摘</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9993,7 +12182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE89D95-B1E0-4B4C-88CD-BA66474829EC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -10008,9 +12199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EFEDDA-9073-4BD7-B2BD-87B178EF0248}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10019,17 +12208,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
-        <v>33</v>
+      <c r="B2" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10037,13 +12226,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="24"/>
       <c r="D5" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10051,18 +12240,18 @@
         <v>2</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="D7" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10070,13 +12259,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="24"/>
       <c r="D10" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10084,13 +12273,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="24"/>
       <c r="D12" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10098,28 +12287,28 @@
         <v>3</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
       <c r="D14" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:3" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:3" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10142,11 +12331,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE153E9D-197F-4667-A745-A23CD82F214B}">
   <dimension ref="A1:BC52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD4" sqref="AD4:AP6"/>
+      <selection pane="bottomRight" activeCell="AV11" sqref="AV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10155,277 +12344,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="55" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="48" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="55" t="s">
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="48" t="s">
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="50"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="37"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="48" t="str">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="35" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>勤怠報告フロー</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="51" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="54">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="44">
         <v>44533</v>
       </c>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="51" t="s">
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="54">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="44">
         <v>44533</v>
       </c>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="50"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="37"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="42" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="42" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="42" t="s">
-        <v>15</v>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="38" t="s">
+        <v>14</v>
       </c>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="43" t="s">
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="42"/>
+    </row>
+    <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="43"/>
+    </row>
+    <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="44"/>
-    </row>
-    <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="47"/>
-    </row>
-    <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -10480,9 +12667,9 @@
       <c r="BC6" s="9"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -10537,9 +12724,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -10594,9 +12781,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -10651,9 +12838,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -10708,9 +12895,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -10765,9 +12952,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -10822,9 +13009,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -10879,9 +13066,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -10936,9 +13123,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -10993,9 +13180,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -11050,9 +13237,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -11107,11 +13294,11 @@
       <c r="BC17" s="12"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>13</v>
+      <c r="A18" s="49" t="s">
+        <v>12</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -11166,9 +13353,9 @@
       <c r="BC18" s="15"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -11223,9 +13410,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -11280,9 +13467,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -11337,9 +13524,9 @@
       <c r="BC21" s="3"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -11394,9 +13581,9 @@
       <c r="BC22" s="3"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -11451,9 +13638,9 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -11508,9 +13695,9 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -11565,9 +13752,9 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -11622,9 +13809,9 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -11679,9 +13866,9 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -11736,9 +13923,9 @@
       <c r="BC28" s="3"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -11793,9 +13980,9 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -11850,9 +14037,9 @@
       <c r="BC30" s="3"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -11907,9 +14094,9 @@
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -11964,9 +14151,9 @@
       <c r="BC32" s="3"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -12021,11 +14208,11 @@
       <c r="BC33" s="12"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>14</v>
+      <c r="A34" s="45" t="s">
+        <v>13</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -12080,9 +14267,9 @@
       <c r="BC34" s="3"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -12137,9 +14324,9 @@
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -12194,9 +14381,9 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -12251,9 +14438,9 @@
       <c r="BC37" s="3"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -12308,9 +14495,9 @@
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -12365,9 +14552,9 @@
       <c r="BC39" s="3"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -12422,9 +14609,9 @@
       <c r="BC40" s="3"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -12479,9 +14666,9 @@
       <c r="BC41" s="3"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -12536,9 +14723,9 @@
       <c r="BC42" s="3"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -12593,9 +14780,9 @@
       <c r="BC43" s="3"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -12650,9 +14837,9 @@
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -12707,9 +14894,9 @@
       <c r="BC45" s="3"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -12764,9 +14951,9 @@
       <c r="BC46" s="3"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -12821,9 +15008,9 @@
       <c r="BC47" s="3"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -12878,9 +15065,9 @@
       <c r="BC48" s="3"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -12935,9 +15122,9 @@
       <c r="BC49" s="3"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -12992,9 +15179,9 @@
       <c r="BC50" s="3"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="28"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -13049,9 +15236,9 @@
       <c r="BC51" s="3"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -13107,11 +15294,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A34:C52"/>
+    <mergeCell ref="A6:C17"/>
+    <mergeCell ref="A18:C33"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
     <mergeCell ref="Q4:AC5"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
@@ -13123,11 +15310,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A34:C52"/>
-    <mergeCell ref="A6:C17"/>
-    <mergeCell ref="A18:C33"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -13138,13 +15325,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A111F278-D136-4A1B-9674-1D61131F141D}">
-  <dimension ref="A1:BC21"/>
+  <dimension ref="A1:BC70"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13153,277 +15340,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="55" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="48" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="55" t="s">
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="48" t="s">
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="50"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="37"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="48" t="str">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="35" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>有給申請フロー</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="51" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="54">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="44">
         <v>44533</v>
       </c>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="51" t="s">
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="54">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="44">
         <v>44533</v>
       </c>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="50"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="37"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="42" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="42" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="42" t="s">
-        <v>15</v>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="38" t="s">
+        <v>14</v>
       </c>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="44"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="42"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="47"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="43"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>16</v>
+      <c r="A6" s="49" t="s">
+        <v>31</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -13478,9 +15663,9 @@
       <c r="BC6" s="15"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -13535,9 +15720,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -13592,9 +15777,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -13649,9 +15834,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -13706,9 +15891,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -13763,9 +15948,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -13820,9 +16005,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -13877,9 +16062,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -13934,9 +16119,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -13991,9 +16176,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -14048,9 +16233,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -14105,9 +16290,9 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -14162,9 +16347,9 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -14219,9 +16404,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -14276,69 +16461,2865 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11"/>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="11"/>
-      <c r="BA21" s="11"/>
-      <c r="BB21" s="11"/>
-      <c r="BC21" s="12"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="3"/>
+    </row>
+    <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="3"/>
+    </row>
+    <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="3"/>
+    </row>
+    <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="3"/>
+    </row>
+    <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="3"/>
+    </row>
+    <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="3"/>
+    </row>
+    <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="3"/>
+    </row>
+    <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="3"/>
+    </row>
+    <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="3"/>
+    </row>
+    <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="3"/>
+    </row>
+    <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="3"/>
+    </row>
+    <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="3"/>
+    </row>
+    <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="3"/>
+    </row>
+    <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="3"/>
+    </row>
+    <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="3"/>
+    </row>
+    <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="52"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="3"/>
+    </row>
+    <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="3"/>
+    </row>
+    <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="52"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="3"/>
+    </row>
+    <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="3"/>
+    </row>
+    <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="3"/>
+    </row>
+    <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="11"/>
+      <c r="AU41" s="11"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
+      <c r="AX41" s="11"/>
+      <c r="AY41" s="11"/>
+      <c r="AZ41" s="11"/>
+      <c r="BA41" s="11"/>
+      <c r="BB41" s="11"/>
+      <c r="BC41" s="12"/>
+    </row>
+    <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="15"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="14"/>
+      <c r="AV42" s="14"/>
+      <c r="AW42" s="14"/>
+      <c r="AX42" s="14"/>
+      <c r="AY42" s="14"/>
+      <c r="AZ42" s="14"/>
+      <c r="BA42" s="14"/>
+      <c r="BB42" s="14"/>
+      <c r="BC42" s="15"/>
+    </row>
+    <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="2"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="3"/>
+    </row>
+    <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2"/>
+      <c r="AV44" s="2"/>
+      <c r="AW44" s="2"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="2"/>
+      <c r="AZ44" s="2"/>
+      <c r="BA44" s="2"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="3"/>
+    </row>
+    <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="2"/>
+      <c r="AV45" s="2"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="2"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="3"/>
+    </row>
+    <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="52"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="2"/>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="3"/>
+    </row>
+    <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="52"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="2"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="3"/>
+    </row>
+    <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="52"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="3"/>
+    </row>
+    <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="52"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="2"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="3"/>
+    </row>
+    <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="52"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="2"/>
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2"/>
+      <c r="AV50" s="2"/>
+      <c r="AW50" s="2"/>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="2"/>
+      <c r="AZ50" s="2"/>
+      <c r="BA50" s="2"/>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="3"/>
+    </row>
+    <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="52"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="3"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="2"/>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="2"/>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="3"/>
+    </row>
+    <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="52"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2"/>
+      <c r="AV52" s="2"/>
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="AZ52" s="2"/>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="3"/>
+    </row>
+    <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="52"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="2"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2"/>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="3"/>
+    </row>
+    <row r="54" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="52"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2"/>
+      <c r="AV54" s="2"/>
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="2"/>
+      <c r="BA54" s="2"/>
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="3"/>
+    </row>
+    <row r="55" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="52"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="2"/>
+      <c r="AP55" s="3"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="2"/>
+      <c r="AW55" s="2"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="2"/>
+      <c r="AZ55" s="2"/>
+      <c r="BA55" s="2"/>
+      <c r="BB55" s="2"/>
+      <c r="BC55" s="3"/>
+    </row>
+    <row r="56" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="52"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="2"/>
+      <c r="AN56" s="2"/>
+      <c r="AO56" s="2"/>
+      <c r="AP56" s="3"/>
+      <c r="AQ56" s="2"/>
+      <c r="AR56" s="2"/>
+      <c r="AS56" s="2"/>
+      <c r="AT56" s="2"/>
+      <c r="AU56" s="2"/>
+      <c r="AV56" s="2"/>
+      <c r="AW56" s="2"/>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="2"/>
+      <c r="AZ56" s="2"/>
+      <c r="BA56" s="2"/>
+      <c r="BB56" s="2"/>
+      <c r="BC56" s="3"/>
+    </row>
+    <row r="57" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="52"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="2"/>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="3"/>
+      <c r="AQ57" s="2"/>
+      <c r="AR57" s="2"/>
+      <c r="AS57" s="2"/>
+      <c r="AT57" s="2"/>
+      <c r="AU57" s="2"/>
+      <c r="AV57" s="2"/>
+      <c r="AW57" s="2"/>
+      <c r="AX57" s="2"/>
+      <c r="AY57" s="2"/>
+      <c r="AZ57" s="2"/>
+      <c r="BA57" s="2"/>
+      <c r="BB57" s="2"/>
+      <c r="BC57" s="3"/>
+    </row>
+    <row r="58" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="52"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="2"/>
+      <c r="AM58" s="2"/>
+      <c r="AN58" s="2"/>
+      <c r="AO58" s="2"/>
+      <c r="AP58" s="3"/>
+      <c r="AQ58" s="2"/>
+      <c r="AR58" s="2"/>
+      <c r="AS58" s="2"/>
+      <c r="AT58" s="2"/>
+      <c r="AU58" s="2"/>
+      <c r="AV58" s="2"/>
+      <c r="AW58" s="2"/>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="2"/>
+      <c r="AZ58" s="2"/>
+      <c r="BA58" s="2"/>
+      <c r="BB58" s="2"/>
+      <c r="BC58" s="3"/>
+    </row>
+    <row r="59" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="52"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" s="2"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="3"/>
+      <c r="AQ59" s="2"/>
+      <c r="AR59" s="2"/>
+      <c r="AS59" s="2"/>
+      <c r="AT59" s="2"/>
+      <c r="AU59" s="2"/>
+      <c r="AV59" s="2"/>
+      <c r="AW59" s="2"/>
+      <c r="AX59" s="2"/>
+      <c r="AY59" s="2"/>
+      <c r="AZ59" s="2"/>
+      <c r="BA59" s="2"/>
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="3"/>
+    </row>
+    <row r="60" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="52"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
+      <c r="AM60" s="2"/>
+      <c r="AN60" s="2"/>
+      <c r="AO60" s="2"/>
+      <c r="AP60" s="3"/>
+      <c r="AQ60" s="2"/>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="2"/>
+      <c r="AT60" s="2"/>
+      <c r="AU60" s="2"/>
+      <c r="AV60" s="2"/>
+      <c r="AW60" s="2"/>
+      <c r="AX60" s="2"/>
+      <c r="AY60" s="2"/>
+      <c r="AZ60" s="2"/>
+      <c r="BA60" s="2"/>
+      <c r="BB60" s="2"/>
+      <c r="BC60" s="3"/>
+    </row>
+    <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="52"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="2"/>
+      <c r="AM61" s="2"/>
+      <c r="AN61" s="2"/>
+      <c r="AO61" s="2"/>
+      <c r="AP61" s="3"/>
+      <c r="AQ61" s="2"/>
+      <c r="AR61" s="2"/>
+      <c r="AS61" s="2"/>
+      <c r="AT61" s="2"/>
+      <c r="AU61" s="2"/>
+      <c r="AV61" s="2"/>
+      <c r="AW61" s="2"/>
+      <c r="AX61" s="2"/>
+      <c r="AY61" s="2"/>
+      <c r="AZ61" s="2"/>
+      <c r="BA61" s="2"/>
+      <c r="BB61" s="2"/>
+      <c r="BC61" s="3"/>
+    </row>
+    <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="52"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="2"/>
+      <c r="AM62" s="2"/>
+      <c r="AN62" s="2"/>
+      <c r="AO62" s="2"/>
+      <c r="AP62" s="3"/>
+      <c r="AQ62" s="2"/>
+      <c r="AR62" s="2"/>
+      <c r="AS62" s="2"/>
+      <c r="AT62" s="2"/>
+      <c r="AU62" s="2"/>
+      <c r="AV62" s="2"/>
+      <c r="AW62" s="2"/>
+      <c r="AX62" s="2"/>
+      <c r="AY62" s="2"/>
+      <c r="AZ62" s="2"/>
+      <c r="BA62" s="2"/>
+      <c r="BB62" s="2"/>
+      <c r="BC62" s="3"/>
+    </row>
+    <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="52"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="2"/>
+      <c r="AM63" s="2"/>
+      <c r="AN63" s="2"/>
+      <c r="AO63" s="2"/>
+      <c r="AP63" s="3"/>
+      <c r="AQ63" s="2"/>
+      <c r="AR63" s="2"/>
+      <c r="AS63" s="2"/>
+      <c r="AT63" s="2"/>
+      <c r="AU63" s="2"/>
+      <c r="AV63" s="2"/>
+      <c r="AW63" s="2"/>
+      <c r="AX63" s="2"/>
+      <c r="AY63" s="2"/>
+      <c r="AZ63" s="2"/>
+      <c r="BA63" s="2"/>
+      <c r="BB63" s="2"/>
+      <c r="BC63" s="3"/>
+    </row>
+    <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="52"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="2"/>
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="2"/>
+      <c r="AK64" s="2"/>
+      <c r="AL64" s="2"/>
+      <c r="AM64" s="2"/>
+      <c r="AN64" s="2"/>
+      <c r="AO64" s="2"/>
+      <c r="AP64" s="3"/>
+      <c r="AQ64" s="2"/>
+      <c r="AR64" s="2"/>
+      <c r="AS64" s="2"/>
+      <c r="AT64" s="2"/>
+      <c r="AU64" s="2"/>
+      <c r="AV64" s="2"/>
+      <c r="AW64" s="2"/>
+      <c r="AX64" s="2"/>
+      <c r="AY64" s="2"/>
+      <c r="AZ64" s="2"/>
+      <c r="BA64" s="2"/>
+      <c r="BB64" s="2"/>
+      <c r="BC64" s="3"/>
+    </row>
+    <row r="65" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="52"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="2"/>
+      <c r="AJ65" s="2"/>
+      <c r="AK65" s="2"/>
+      <c r="AL65" s="2"/>
+      <c r="AM65" s="2"/>
+      <c r="AN65" s="2"/>
+      <c r="AO65" s="2"/>
+      <c r="AP65" s="3"/>
+      <c r="AQ65" s="2"/>
+      <c r="AR65" s="2"/>
+      <c r="AS65" s="2"/>
+      <c r="AT65" s="2"/>
+      <c r="AU65" s="2"/>
+      <c r="AV65" s="2"/>
+      <c r="AW65" s="2"/>
+      <c r="AX65" s="2"/>
+      <c r="AY65" s="2"/>
+      <c r="AZ65" s="2"/>
+      <c r="BA65" s="2"/>
+      <c r="BB65" s="2"/>
+      <c r="BC65" s="3"/>
+    </row>
+    <row r="66" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="52"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="2"/>
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2"/>
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="2"/>
+      <c r="AL66" s="2"/>
+      <c r="AM66" s="2"/>
+      <c r="AN66" s="2"/>
+      <c r="AO66" s="2"/>
+      <c r="AP66" s="3"/>
+      <c r="AQ66" s="2"/>
+      <c r="AR66" s="2"/>
+      <c r="AS66" s="2"/>
+      <c r="AT66" s="2"/>
+      <c r="AU66" s="2"/>
+      <c r="AV66" s="2"/>
+      <c r="AW66" s="2"/>
+      <c r="AX66" s="2"/>
+      <c r="AY66" s="2"/>
+      <c r="AZ66" s="2"/>
+      <c r="BA66" s="2"/>
+      <c r="BB66" s="2"/>
+      <c r="BC66" s="3"/>
+    </row>
+    <row r="67" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="52"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="2"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="2"/>
+      <c r="AM67" s="2"/>
+      <c r="AN67" s="2"/>
+      <c r="AO67" s="2"/>
+      <c r="AP67" s="3"/>
+      <c r="AQ67" s="2"/>
+      <c r="AR67" s="2"/>
+      <c r="AS67" s="2"/>
+      <c r="AT67" s="2"/>
+      <c r="AU67" s="2"/>
+      <c r="AV67" s="2"/>
+      <c r="AW67" s="2"/>
+      <c r="AX67" s="2"/>
+      <c r="AY67" s="2"/>
+      <c r="AZ67" s="2"/>
+      <c r="BA67" s="2"/>
+      <c r="BB67" s="2"/>
+      <c r="BC67" s="3"/>
+    </row>
+    <row r="68" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="52"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="2"/>
+      <c r="AM68" s="2"/>
+      <c r="AN68" s="2"/>
+      <c r="AO68" s="2"/>
+      <c r="AP68" s="3"/>
+      <c r="AQ68" s="2"/>
+      <c r="AR68" s="2"/>
+      <c r="AS68" s="2"/>
+      <c r="AT68" s="2"/>
+      <c r="AU68" s="2"/>
+      <c r="AV68" s="2"/>
+      <c r="AW68" s="2"/>
+      <c r="AX68" s="2"/>
+      <c r="AY68" s="2"/>
+      <c r="AZ68" s="2"/>
+      <c r="BA68" s="2"/>
+      <c r="BB68" s="2"/>
+      <c r="BC68" s="3"/>
+    </row>
+    <row r="69" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="52"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="2"/>
+      <c r="AM69" s="2"/>
+      <c r="AN69" s="2"/>
+      <c r="AO69" s="2"/>
+      <c r="AP69" s="3"/>
+      <c r="AQ69" s="2"/>
+      <c r="AR69" s="2"/>
+      <c r="AS69" s="2"/>
+      <c r="AT69" s="2"/>
+      <c r="AU69" s="2"/>
+      <c r="AV69" s="2"/>
+      <c r="AW69" s="2"/>
+      <c r="AX69" s="2"/>
+      <c r="AY69" s="2"/>
+      <c r="AZ69" s="2"/>
+      <c r="BA69" s="2"/>
+      <c r="BB69" s="2"/>
+      <c r="BC69" s="3"/>
+    </row>
+    <row r="70" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="59"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="11"/>
+      <c r="AA70" s="11"/>
+      <c r="AB70" s="11"/>
+      <c r="AC70" s="11"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="11"/>
+      <c r="AF70" s="11"/>
+      <c r="AG70" s="11"/>
+      <c r="AH70" s="11"/>
+      <c r="AI70" s="11"/>
+      <c r="AJ70" s="11"/>
+      <c r="AK70" s="11"/>
+      <c r="AL70" s="11"/>
+      <c r="AM70" s="11"/>
+      <c r="AN70" s="11"/>
+      <c r="AO70" s="11"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="11"/>
+      <c r="AR70" s="11"/>
+      <c r="AS70" s="11"/>
+      <c r="AT70" s="11"/>
+      <c r="AU70" s="11"/>
+      <c r="AV70" s="11"/>
+      <c r="AW70" s="11"/>
+      <c r="AX70" s="11"/>
+      <c r="AY70" s="11"/>
+      <c r="AZ70" s="11"/>
+      <c r="BA70" s="11"/>
+      <c r="BB70" s="11"/>
+      <c r="BC70" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+  <mergeCells count="20">
+    <mergeCell ref="A42:C70"/>
+    <mergeCell ref="A6:C41"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="AV1:BC1"/>
     <mergeCell ref="G2:N2"/>
@@ -14348,15 +19329,18 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A6:C21"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="41" max="54" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\business-req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E087DE85-2DD0-45E0-8351-9C7E3C4522D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A00F428-55B9-4265-B07C-0E8E373F98DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="330" windowWidth="19170" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="330" windowWidth="22590" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="3" r:id="rId1"/>
@@ -663,6 +663,63 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -713,63 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2902,9 +2902,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>115307</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>51487</xdr:rowOff>
+      <xdr:colOff>143882</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>156262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -2928,12 +2928,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2639432" y="7471462"/>
-          <a:ext cx="599067" cy="1625062"/>
+          <a:off x="2668007" y="7757212"/>
+          <a:ext cx="570492" cy="1339312"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 40460"/>
+            <a:gd name="adj1" fmla="val 38313"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -5600,15 +5600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>38658</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>143437</xdr:rowOff>
+      <xdr:colOff>67233</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>115307</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>140511</xdr:rowOff>
+      <xdr:colOff>143882</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>64311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5623,7 +5623,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1667433" y="7201462"/>
+          <a:off x="1696008" y="7487212"/>
           <a:ext cx="971999" cy="539999"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMultidocument">
@@ -12491,10 +12491,10 @@
   <dimension ref="A1:BC56"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:F2"/>
+      <selection pane="bottomRight" activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12503,275 +12503,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="56" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="56" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="49" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="56" t="s">
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="49" t="s">
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="51"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="37"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="49" t="str">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="35" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>勤怠報告フロー</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="52" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="55">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="44">
         <v>44533</v>
       </c>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="52" t="s">
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="44">
         <v>44533</v>
       </c>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="51"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="37"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="43" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="43" t="s">
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="45"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="42"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="48"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="43"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -12826,9 +12826,9 @@
       <c r="BC6" s="9"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -12883,9 +12883,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -12940,9 +12940,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -12997,9 +12997,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -13054,9 +13054,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -13111,9 +13111,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -13168,9 +13168,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -13225,9 +13225,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -13282,9 +13282,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -13339,9 +13339,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -13396,9 +13396,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -13453,9 +13453,9 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -13510,9 +13510,9 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -13567,9 +13567,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -13624,9 +13624,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -13681,11 +13681,11 @@
       <c r="BC21" s="12"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -13740,9 +13740,9 @@
       <c r="BC22" s="15"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -13797,9 +13797,9 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -13854,9 +13854,9 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -13911,9 +13911,9 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -13968,9 +13968,9 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -14025,9 +14025,9 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -14082,9 +14082,9 @@
       <c r="BC28" s="3"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -14139,9 +14139,9 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -14196,9 +14196,9 @@
       <c r="BC30" s="3"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -14253,9 +14253,9 @@
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -14310,9 +14310,9 @@
       <c r="BC32" s="3"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="35"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -14367,9 +14367,9 @@
       <c r="BC33" s="3"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -14424,9 +14424,9 @@
       <c r="BC34" s="3"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="35"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -14481,9 +14481,9 @@
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="35"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -14538,9 +14538,9 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -14595,11 +14595,11 @@
       <c r="BC37" s="12"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -14654,9 +14654,9 @@
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -14711,9 +14711,9 @@
       <c r="BC39" s="3"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -14768,9 +14768,9 @@
       <c r="BC40" s="3"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -14825,9 +14825,9 @@
       <c r="BC41" s="3"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -14882,9 +14882,9 @@
       <c r="BC42" s="3"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -14939,9 +14939,9 @@
       <c r="BC43" s="3"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -14996,9 +14996,9 @@
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -15053,9 +15053,9 @@
       <c r="BC45" s="3"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -15110,9 +15110,9 @@
       <c r="BC46" s="3"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -15167,9 +15167,9 @@
       <c r="BC47" s="3"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -15224,9 +15224,9 @@
       <c r="BC48" s="3"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -15281,9 +15281,9 @@
       <c r="BC49" s="3"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -15338,9 +15338,9 @@
       <c r="BC50" s="3"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -15395,9 +15395,9 @@
       <c r="BC51" s="3"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -15452,9 +15452,9 @@
       <c r="BC52" s="3"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -15509,9 +15509,9 @@
       <c r="BC53" s="3"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -15566,9 +15566,9 @@
       <c r="BC54" s="3"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -15623,9 +15623,9 @@
       <c r="BC55" s="3"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="29"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -15681,11 +15681,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A38:C56"/>
+    <mergeCell ref="A6:C21"/>
+    <mergeCell ref="A22:C37"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
     <mergeCell ref="Q4:AC5"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
@@ -15697,11 +15697,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A38:C56"/>
-    <mergeCell ref="A6:C21"/>
-    <mergeCell ref="A22:C37"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -15718,7 +15718,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:F2"/>
+      <selection pane="bottomRight" activeCell="D68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15727,275 +15727,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="56" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="56" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="49" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="56" t="s">
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="49" t="s">
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="51"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="37"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="49" t="str">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="35" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>有給申請フロー</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="52" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="55">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="44">
         <v>44533</v>
       </c>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="52" t="s">
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="44">
         <v>44533</v>
       </c>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="51"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="37"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="43" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="43" t="s">
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="45"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="42"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="48"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="43"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -16050,9 +16050,9 @@
       <c r="BC6" s="15"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -16107,9 +16107,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -16164,9 +16164,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -16221,9 +16221,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -16278,9 +16278,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -16335,9 +16335,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -16392,9 +16392,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -16449,9 +16449,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -16506,9 +16506,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -16563,9 +16563,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -16620,9 +16620,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -16677,9 +16677,9 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -16734,9 +16734,9 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -16791,9 +16791,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -16848,9 +16848,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -16905,9 +16905,9 @@
       <c r="BC21" s="3"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -16962,9 +16962,9 @@
       <c r="BC22" s="3"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -17019,9 +17019,9 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -17076,9 +17076,9 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -17133,9 +17133,9 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -17190,9 +17190,9 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -17247,9 +17247,9 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -17304,9 +17304,9 @@
       <c r="BC28" s="3"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -17361,9 +17361,9 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -17418,9 +17418,9 @@
       <c r="BC30" s="3"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -17475,9 +17475,9 @@
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -17532,9 +17532,9 @@
       <c r="BC32" s="3"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="35"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -17589,9 +17589,9 @@
       <c r="BC33" s="3"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -17646,9 +17646,9 @@
       <c r="BC34" s="3"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="35"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -17703,9 +17703,9 @@
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="35"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -17760,9 +17760,9 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -17817,9 +17817,9 @@
       <c r="BC37" s="3"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="35"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -17874,9 +17874,9 @@
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="35"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -17931,9 +17931,9 @@
       <c r="BC39" s="3"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="35"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -17988,9 +17988,9 @@
       <c r="BC40" s="3"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -18045,11 +18045,11 @@
       <c r="BC41" s="12"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="13"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -18104,9 +18104,9 @@
       <c r="BC42" s="15"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="35"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -18161,9 +18161,9 @@
       <c r="BC43" s="3"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="35"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -18218,9 +18218,9 @@
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="35"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -18275,9 +18275,9 @@
       <c r="BC45" s="3"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="35"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -18332,9 +18332,9 @@
       <c r="BC46" s="3"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="35"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -18389,9 +18389,9 @@
       <c r="BC47" s="3"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="35"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -18446,9 +18446,9 @@
       <c r="BC48" s="3"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="35"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -18503,9 +18503,9 @@
       <c r="BC49" s="3"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="35"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -18560,9 +18560,9 @@
       <c r="BC50" s="3"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="35"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -18617,9 +18617,9 @@
       <c r="BC51" s="3"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="35"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -18674,9 +18674,9 @@
       <c r="BC52" s="3"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="35"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -18731,9 +18731,9 @@
       <c r="BC53" s="3"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="35"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -18788,9 +18788,9 @@
       <c r="BC54" s="3"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="35"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -18845,9 +18845,9 @@
       <c r="BC55" s="3"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="35"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -18902,9 +18902,9 @@
       <c r="BC56" s="3"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="35"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -18959,9 +18959,9 @@
       <c r="BC57" s="3"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="35"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -19016,9 +19016,9 @@
       <c r="BC58" s="3"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="35"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -19073,9 +19073,9 @@
       <c r="BC59" s="3"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="35"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -19130,9 +19130,9 @@
       <c r="BC60" s="3"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="35"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -19187,9 +19187,9 @@
       <c r="BC61" s="3"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="35"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -19244,9 +19244,9 @@
       <c r="BC62" s="3"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="35"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -19301,9 +19301,9 @@
       <c r="BC63" s="3"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="35"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -19358,9 +19358,9 @@
       <c r="BC64" s="3"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="35"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -19415,9 +19415,9 @@
       <c r="BC65" s="3"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="35"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -19472,9 +19472,9 @@
       <c r="BC66" s="3"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="35"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -19529,9 +19529,9 @@
       <c r="BC67" s="3"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="35"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -19586,9 +19586,9 @@
       <c r="BC68" s="3"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="35"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -19643,9 +19643,9 @@
       <c r="BC69" s="3"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="61"/>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -19701,11 +19701,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A42:C70"/>
+    <mergeCell ref="A6:C41"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="AV1:BC1"/>
@@ -19716,11 +19716,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A42:C70"/>
-    <mergeCell ref="A6:C41"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\business-req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A00F428-55B9-4265-B07C-0E8E373F98DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF679E-1052-49FD-8D39-4847A8C367CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="22590" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="330" windowWidth="22605" windowHeight="15870" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="3" r:id="rId1"/>
@@ -663,63 +663,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -770,6 +713,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12358,7 +12358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EFEDDA-9073-4BD7-B2BD-87B178EF0248}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12503,275 +12503,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="32" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="32" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="32" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="35" t="s">
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="32" t="s">
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="35" t="s">
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="37"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="51"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="35" t="str">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="49" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>勤怠報告フロー</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="29" t="s">
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="44">
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="55">
         <v>44533</v>
       </c>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="44">
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55">
         <v>44533</v>
       </c>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="37"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="51"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="38" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="38" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="38" t="s">
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="42"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="45"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="43"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="48"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -12826,9 +12826,9 @@
       <c r="BC6" s="9"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -12883,9 +12883,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -12940,9 +12940,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -12997,9 +12997,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -13054,9 +13054,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -13111,9 +13111,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -13168,9 +13168,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -13225,9 +13225,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -13282,9 +13282,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -13339,9 +13339,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -13396,9 +13396,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -13453,9 +13453,9 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -13510,9 +13510,9 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -13567,9 +13567,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -13624,9 +13624,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -13681,11 +13681,11 @@
       <c r="BC21" s="12"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -13740,9 +13740,9 @@
       <c r="BC22" s="15"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="54"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -13797,9 +13797,9 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -13854,9 +13854,9 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -13911,9 +13911,9 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="54"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -13968,9 +13968,9 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="54"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -14025,9 +14025,9 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -14082,9 +14082,9 @@
       <c r="BC28" s="3"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -14139,9 +14139,9 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -14196,9 +14196,9 @@
       <c r="BC30" s="3"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="54"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -14253,9 +14253,9 @@
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="54"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -14310,9 +14310,9 @@
       <c r="BC32" s="3"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -14367,9 +14367,9 @@
       <c r="BC33" s="3"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="54"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -14424,9 +14424,9 @@
       <c r="BC34" s="3"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="54"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -14481,9 +14481,9 @@
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="54"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -14538,9 +14538,9 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -14595,11 +14595,11 @@
       <c r="BC37" s="12"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -14654,9 +14654,9 @@
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -14711,9 +14711,9 @@
       <c r="BC39" s="3"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -14768,9 +14768,9 @@
       <c r="BC40" s="3"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -14825,9 +14825,9 @@
       <c r="BC41" s="3"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -14882,9 +14882,9 @@
       <c r="BC42" s="3"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -14939,9 +14939,9 @@
       <c r="BC43" s="3"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -14996,9 +14996,9 @@
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -15053,9 +15053,9 @@
       <c r="BC45" s="3"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -15110,9 +15110,9 @@
       <c r="BC46" s="3"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -15167,9 +15167,9 @@
       <c r="BC47" s="3"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -15224,9 +15224,9 @@
       <c r="BC48" s="3"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -15281,9 +15281,9 @@
       <c r="BC49" s="3"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -15338,9 +15338,9 @@
       <c r="BC50" s="3"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -15395,9 +15395,9 @@
       <c r="BC51" s="3"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -15452,9 +15452,9 @@
       <c r="BC52" s="3"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -15509,9 +15509,9 @@
       <c r="BC53" s="3"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -15566,9 +15566,9 @@
       <c r="BC54" s="3"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -15623,9 +15623,9 @@
       <c r="BC55" s="3"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -15681,11 +15681,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A38:C56"/>
-    <mergeCell ref="A6:C21"/>
-    <mergeCell ref="A22:C37"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="Q4:AC5"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
@@ -15697,11 +15697,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A38:C56"/>
+    <mergeCell ref="A6:C21"/>
+    <mergeCell ref="A22:C37"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -15714,7 +15714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A111F278-D136-4A1B-9674-1D61131F141D}">
   <dimension ref="A1:BC70"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -15727,275 +15727,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="32" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="32" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="32" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="35" t="s">
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="32" t="s">
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="35" t="s">
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="37"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="51"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="35" t="str">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="49" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>有給申請フロー</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="29" t="s">
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="44">
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="55">
         <v>44533</v>
       </c>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="44">
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55">
         <v>44533</v>
       </c>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="37"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="51"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="38" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="38" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="38" t="s">
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="42"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="45"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="43"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="48"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -16050,9 +16050,9 @@
       <c r="BC6" s="15"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -16107,9 +16107,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -16164,9 +16164,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -16221,9 +16221,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -16278,9 +16278,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -16335,9 +16335,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -16392,9 +16392,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -16449,9 +16449,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -16506,9 +16506,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="54"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -16563,9 +16563,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="54"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -16620,9 +16620,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="54"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -16677,9 +16677,9 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -16734,9 +16734,9 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -16791,9 +16791,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -16848,9 +16848,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -16905,9 +16905,9 @@
       <c r="BC21" s="3"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="54"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -16962,9 +16962,9 @@
       <c r="BC22" s="3"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="54"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -17019,9 +17019,9 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -17076,9 +17076,9 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -17133,9 +17133,9 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="54"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -17190,9 +17190,9 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="54"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -17247,9 +17247,9 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -17304,9 +17304,9 @@
       <c r="BC28" s="3"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -17361,9 +17361,9 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -17418,9 +17418,9 @@
       <c r="BC30" s="3"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="54"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -17475,9 +17475,9 @@
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="54"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -17532,9 +17532,9 @@
       <c r="BC32" s="3"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -17589,9 +17589,9 @@
       <c r="BC33" s="3"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="54"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -17646,9 +17646,9 @@
       <c r="BC34" s="3"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="54"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -17703,9 +17703,9 @@
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="54"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -17760,9 +17760,9 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -17817,9 +17817,9 @@
       <c r="BC37" s="3"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="54"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -17874,9 +17874,9 @@
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="54"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -17931,9 +17931,9 @@
       <c r="BC39" s="3"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -17988,9 +17988,9 @@
       <c r="BC40" s="3"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="61"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -18045,11 +18045,11 @@
       <c r="BC41" s="12"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="13"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -18104,9 +18104,9 @@
       <c r="BC42" s="15"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="54"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -18161,9 +18161,9 @@
       <c r="BC43" s="3"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -18218,9 +18218,9 @@
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="54"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -18275,9 +18275,9 @@
       <c r="BC45" s="3"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="54"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -18332,9 +18332,9 @@
       <c r="BC46" s="3"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="54"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -18389,9 +18389,9 @@
       <c r="BC47" s="3"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="54"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -18446,9 +18446,9 @@
       <c r="BC48" s="3"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="54"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -18503,9 +18503,9 @@
       <c r="BC49" s="3"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="54"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -18560,9 +18560,9 @@
       <c r="BC50" s="3"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="54"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -18617,9 +18617,9 @@
       <c r="BC51" s="3"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="54"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -18674,9 +18674,9 @@
       <c r="BC52" s="3"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="54"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="35"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -18731,9 +18731,9 @@
       <c r="BC53" s="3"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -18788,9 +18788,9 @@
       <c r="BC54" s="3"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="54"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -18845,9 +18845,9 @@
       <c r="BC55" s="3"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="54"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -18902,9 +18902,9 @@
       <c r="BC56" s="3"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="54"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -18959,9 +18959,9 @@
       <c r="BC57" s="3"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="54"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -19016,9 +19016,9 @@
       <c r="BC58" s="3"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="54"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -19073,9 +19073,9 @@
       <c r="BC59" s="3"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="54"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -19130,9 +19130,9 @@
       <c r="BC60" s="3"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="54"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -19187,9 +19187,9 @@
       <c r="BC61" s="3"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="54"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -19244,9 +19244,9 @@
       <c r="BC62" s="3"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="54"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -19301,9 +19301,9 @@
       <c r="BC63" s="3"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="54"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -19358,9 +19358,9 @@
       <c r="BC64" s="3"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="54"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -19415,9 +19415,9 @@
       <c r="BC65" s="3"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="54"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="35"/>
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -19472,9 +19472,9 @@
       <c r="BC66" s="3"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="54"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="35"/>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -19529,9 +19529,9 @@
       <c r="BC67" s="3"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="54"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -19586,9 +19586,9 @@
       <c r="BC68" s="3"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="54"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -19643,9 +19643,9 @@
       <c r="BC69" s="3"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="61"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -19701,11 +19701,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A42:C70"/>
-    <mergeCell ref="A6:C41"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="AV1:BC1"/>
@@ -19716,11 +19716,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A42:C70"/>
+    <mergeCell ref="A6:C41"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/business-req/ビジネスプロセスフロー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\business-req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF679E-1052-49FD-8D39-4847A8C367CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA07D62-896F-4BAE-B2FC-B54DB33633C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="330" windowWidth="22605" windowHeight="15870" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="14925" windowHeight="15645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
@@ -99,16 +99,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>友利拓真</t>
-    <rPh sb="0" eb="2">
-      <t>トモリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タクマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -663,6 +653,63 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -713,63 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12367,17 +12357,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12385,13 +12375,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="24"/>
       <c r="D5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12399,18 +12389,18 @@
         <v>2</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="D7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12418,13 +12408,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="24"/>
       <c r="D10" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12432,13 +12422,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="24"/>
       <c r="D12" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12446,28 +12436,28 @@
         <v>3</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
       <c r="D14" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:3" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:3" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12490,11 +12480,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE153E9D-197F-4667-A745-A23CD82F214B}">
   <dimension ref="A1:BC56"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N51" sqref="N51"/>
+      <selection pane="bottomRight" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12503,275 +12493,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="56" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="56" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="56" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="51"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="37"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="49" t="str">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="35" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>勤怠報告フロー</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="52" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="55">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="44">
         <v>44533</v>
       </c>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="52" t="s">
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="44">
         <v>44533</v>
       </c>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="51"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="37"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="43" t="s">
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="42"/>
+    </row>
+    <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="43"/>
+    </row>
+    <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="45"/>
-    </row>
-    <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="48"/>
-    </row>
-    <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -12826,9 +12812,9 @@
       <c r="BC6" s="9"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -12883,9 +12869,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -12940,9 +12926,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -12997,9 +12983,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -13054,9 +13040,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -13111,9 +13097,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -13168,9 +13154,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -13225,9 +13211,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -13282,9 +13268,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -13339,9 +13325,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -13396,9 +13382,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -13453,9 +13439,9 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -13510,9 +13496,9 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -13567,9 +13553,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -13624,9 +13610,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -13681,11 +13667,11 @@
       <c r="BC21" s="12"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>12</v>
+      <c r="A22" s="49" t="s">
+        <v>11</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -13740,9 +13726,9 @@
       <c r="BC22" s="15"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -13797,9 +13783,9 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -13854,9 +13840,9 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -13911,9 +13897,9 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -13968,9 +13954,9 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -14025,9 +14011,9 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -14082,9 +14068,9 @@
       <c r="BC28" s="3"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -14139,9 +14125,9 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -14196,9 +14182,9 @@
       <c r="BC30" s="3"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -14253,9 +14239,9 @@
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -14310,9 +14296,9 @@
       <c r="BC32" s="3"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="35"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -14367,9 +14353,9 @@
       <c r="BC33" s="3"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -14424,9 +14410,9 @@
       <c r="BC34" s="3"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="35"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -14481,9 +14467,9 @@
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="35"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -14538,9 +14524,9 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -14595,11 +14581,11 @@
       <c r="BC37" s="12"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>13</v>
+      <c r="A38" s="45" t="s">
+        <v>12</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -14654,9 +14640,9 @@
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -14711,9 +14697,9 @@
       <c r="BC39" s="3"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -14768,9 +14754,9 @@
       <c r="BC40" s="3"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -14825,9 +14811,9 @@
       <c r="BC41" s="3"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -14882,9 +14868,9 @@
       <c r="BC42" s="3"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -14939,9 +14925,9 @@
       <c r="BC43" s="3"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -14996,9 +14982,9 @@
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -15053,9 +15039,9 @@
       <c r="BC45" s="3"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -15110,9 +15096,9 @@
       <c r="BC46" s="3"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -15167,9 +15153,9 @@
       <c r="BC47" s="3"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -15224,9 +15210,9 @@
       <c r="BC48" s="3"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -15281,9 +15267,9 @@
       <c r="BC49" s="3"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -15338,9 +15324,9 @@
       <c r="BC50" s="3"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -15395,9 +15381,9 @@
       <c r="BC51" s="3"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -15452,9 +15438,9 @@
       <c r="BC52" s="3"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -15509,9 +15495,9 @@
       <c r="BC53" s="3"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -15566,9 +15552,9 @@
       <c r="BC54" s="3"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -15623,9 +15609,9 @@
       <c r="BC55" s="3"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="29"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -15681,11 +15667,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A38:C56"/>
+    <mergeCell ref="A6:C21"/>
+    <mergeCell ref="A22:C37"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
     <mergeCell ref="Q4:AC5"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
@@ -15697,11 +15683,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A38:C56"/>
-    <mergeCell ref="A6:C21"/>
-    <mergeCell ref="A22:C37"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -15714,7 +15700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A111F278-D136-4A1B-9674-1D61131F141D}">
   <dimension ref="A1:BC70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -15727,275 +15713,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="56" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="56" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="56" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="51"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="37"/>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="49" t="str">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="35" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>有給申請フロー</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="52" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="55">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="44">
         <v>44533</v>
       </c>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="52" t="s">
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="44">
         <v>44533</v>
       </c>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="51"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="37"/>
     </row>
     <row r="3" spans="1:55" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="17"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="43" t="s">
-        <v>10</v>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="38" t="s">
+        <v>13</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="45"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="42"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="48"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="43"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>31</v>
+      <c r="A6" s="49" t="s">
+        <v>30</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -16050,9 +16032,9 @@
       <c r="BC6" s="15"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -16107,9 +16089,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -16164,9 +16146,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -16221,9 +16203,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -16278,9 +16260,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -16335,9 +16317,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -16392,9 +16374,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -16449,9 +16431,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -16506,9 +16488,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -16563,9 +16545,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -16620,9 +16602,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -16677,9 +16659,9 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -16734,9 +16716,9 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -16791,9 +16773,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -16848,9 +16830,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -16905,9 +16887,9 @@
       <c r="BC21" s="3"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -16962,9 +16944,9 @@
       <c r="BC22" s="3"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -17019,9 +17001,9 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -17076,9 +17058,9 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -17133,9 +17115,9 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -17190,9 +17172,9 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -17247,9 +17229,9 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -17304,9 +17286,9 @@
       <c r="BC28" s="3"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -17361,9 +17343,9 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -17418,9 +17400,9 @@
       <c r="BC30" s="3"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -17475,9 +17457,9 @@
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -17532,9 +17514,9 @@
       <c r="BC32" s="3"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="35"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -17589,9 +17571,9 @@
       <c r="BC33" s="3"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -17646,9 +17628,9 @@
       <c r="BC34" s="3"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="35"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -17703,9 +17685,9 @@
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="35"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -17760,9 +17742,9 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -17817,9 +17799,9 @@
       <c r="BC37" s="3"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="35"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -17874,9 +17856,9 @@
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="35"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -17931,9 +17913,9 @@
       <c r="BC39" s="3"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="35"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -17988,9 +17970,9 @@
       <c r="BC40" s="3"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -18045,11 +18027,11 @@
       <c r="BC41" s="12"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>32</v>
+      <c r="A42" s="49" t="s">
+        <v>31</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="13"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -18104,9 +18086,9 @@
       <c r="BC42" s="15"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="35"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -18161,9 +18143,9 @@
       <c r="BC43" s="3"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="35"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -18218,9 +18200,9 @@
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="35"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -18275,9 +18257,9 @@
       <c r="BC45" s="3"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="35"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -18332,9 +18314,9 @@
       <c r="BC46" s="3"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="35"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -18389,9 +18371,9 @@
       <c r="BC47" s="3"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="35"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -18446,9 +18428,9 @@
       <c r="BC48" s="3"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="35"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -18503,9 +18485,9 @@
       <c r="BC49" s="3"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="35"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -18560,9 +18542,9 @@
       <c r="BC50" s="3"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="35"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -18617,9 +18599,9 @@
       <c r="BC51" s="3"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="35"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -18674,9 +18656,9 @@
       <c r="BC52" s="3"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="35"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -18731,9 +18713,9 @@
       <c r="BC53" s="3"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="35"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -18788,9 +18770,9 @@
       <c r="BC54" s="3"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="35"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -18845,9 +18827,9 @@
       <c r="BC55" s="3"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="35"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -18902,9 +18884,9 @@
       <c r="BC56" s="3"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="35"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -18959,9 +18941,9 @@
       <c r="BC57" s="3"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="35"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -19016,9 +18998,9 @@
       <c r="BC58" s="3"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="35"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -19073,9 +19055,9 @@
       <c r="BC59" s="3"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="35"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -19130,9 +19112,9 @@
       <c r="BC60" s="3"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="35"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -19187,9 +19169,9 @@
       <c r="BC61" s="3"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="35"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -19244,9 +19226,9 @@
       <c r="BC62" s="3"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="35"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -19301,9 +19283,9 @@
       <c r="BC63" s="3"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="35"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -19358,9 +19340,9 @@
       <c r="BC64" s="3"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="35"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -19415,9 +19397,9 @@
       <c r="BC65" s="3"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="35"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -19472,9 +19454,9 @@
       <c r="BC66" s="3"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="35"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -19529,9 +19511,9 @@
       <c r="BC67" s="3"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="35"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -19586,9 +19568,9 @@
       <c r="BC68" s="3"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="35"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -19643,9 +19625,9 @@
       <c r="BC69" s="3"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="61"/>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -19701,11 +19683,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A42:C70"/>
+    <mergeCell ref="A6:C41"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="AV1:BC1"/>
@@ -19716,11 +19698,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A42:C70"/>
-    <mergeCell ref="A6:C41"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
